--- a/青岛会展项目/郭垠/招标需求和现有会议云对比.xlsx
+++ b/青岛会展项目/郭垠/招标需求和现有会议云对比.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="会展云服务系统" sheetId="1" r:id="rId1"/>
     <sheet name="自办展管理系统" sheetId="2" r:id="rId2"/>
+    <sheet name="备注" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc505693406" localSheetId="0">会展云服务系统!$B$3</definedName>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="147">
   <si>
     <t>匹配状况</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -686,6 +687,18 @@
   </si>
   <si>
     <t>新开发，需要详细调研，审批流程可能会涉及与第三方系统对接。需要提前约定接口。可以部分参考展前预约系统进行设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色区域标记的为需要修改的才能使用的功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色区域标记的为基本可以复用的功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色区域标记需要重新开发，或者开发量较大的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -854,114 +867,118 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1274,12 +1291,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="28.125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="49.75" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="27.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="49.75" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
@@ -1300,391 +1317,391 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="29" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="13" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1735,18 +1752,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="28.125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="49.75" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="27.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="49.75" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
@@ -1767,228 +1784,228 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="37"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="23" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="23" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="26" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="25" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="34" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="20" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="25" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="22" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="22" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="22" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="33" t="s">
@@ -1996,154 +2013,154 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="31"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="21" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="31"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="32"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="20" t="s">
+      <c r="C23" s="25"/>
+      <c r="D23" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="25" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="20" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="25" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="22" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="21" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="23" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E29" s="33" t="s">
@@ -2151,56 +2168,56 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="31"/>
+      <c r="E30" s="34"/>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="31"/>
+      <c r="E31" s="34"/>
     </row>
     <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="31"/>
+      <c r="E32" s="34"/>
     </row>
     <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="32"/>
+      <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2240,4 +2257,60 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="48.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="39"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="39"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="39"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="39"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/青岛会展项目/郭垠/招标需求和现有会议云对比.xlsx
+++ b/青岛会展项目/郭垠/招标需求和现有会议云对比.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="148">
   <si>
     <t>匹配状况</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,15 +118,6 @@
   <si>
     <t>会展商旅服务平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐饮预订</t>
-  </si>
-  <si>
-    <t>住宿预定</t>
-  </si>
-  <si>
-    <t>商务用车</t>
   </si>
   <si>
     <t>票务预订</t>
@@ -439,20 +430,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以添加餐饮及其他类别商品，可以满足线下订餐
-，对接第三方平台功能，需要进行扩展和调研。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单会系统--酒店预订</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可进行酒店信息录入，在系统内进行酒店预订，属于线下预订范畴，如对接第三方平台功能，需要进行扩展和调研。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以利用商品管理满足商务用车功能，如要对接第三方平台，需要调研和进行功能扩展。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -699,6 +681,31 @@
   </si>
   <si>
     <t>红色区域标记需要重新开发，或者开发量较大的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定坐标，到公共服务区的一个导航。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以添加餐饮及其他类别商品，可以满足线下订餐
+，对接第三方平台功能，需要进行扩展和调研。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿预定（主）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐饮预订</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务用车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该直接对接第三方。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -939,46 +946,46 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1285,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1317,78 +1324,78 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="31"/>
+      <c r="B5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="D5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
-      <c r="B5" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
     <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1400,309 +1407,309 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E7" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="D8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="31"/>
+      <c r="B9" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="31"/>
+      <c r="B10" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="31"/>
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="13" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="31"/>
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
-      <c r="B9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="D12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="13" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="31"/>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
-      <c r="B10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="D13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
-      <c r="B12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="27" t="s">
-        <v>24</v>
+      <c r="A15" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>96</v>
+        <v>79</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="30"/>
+        <v>79</v>
+      </c>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="30"/>
+        <v>79</v>
+      </c>
+      <c r="E17" s="34"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="31"/>
+        <v>79</v>
+      </c>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="32"/>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="32"/>
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="32"/>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="32"/>
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="32"/>
+      <c r="B28" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="28"/>
-      <c r="B28" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1752,7 +1759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1784,440 +1791,440 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
-        <v>31</v>
+      <c r="A2" s="42" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>143</v>
+        <v>79</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="38"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="36"/>
+        <v>79</v>
+      </c>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="38"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="36"/>
+        <v>79</v>
+      </c>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="38"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="36"/>
+        <v>79</v>
+      </c>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="36"/>
+        <v>79</v>
+      </c>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="38"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="37"/>
+        <v>79</v>
+      </c>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32" t="s">
-        <v>38</v>
+      <c r="A8" s="36" t="s">
+        <v>35</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="32"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E13" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="36"/>
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="42"/>
+      <c r="B16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="42"/>
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="36"/>
+      <c r="B19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="36"/>
+      <c r="B20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="38"/>
+    </row>
+    <row r="21" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="36"/>
+      <c r="B21" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="38"/>
-      <c r="B16" s="6" t="s">
+      <c r="C21" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="38"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="36"/>
+      <c r="B22" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="39"/>
+    </row>
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="36"/>
+      <c r="B23" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="38"/>
-      <c r="B17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32"/>
-      <c r="B19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="34"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="32"/>
-      <c r="B20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="34"/>
-    </row>
-    <row r="21" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="32"/>
-      <c r="B21" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="34"/>
-    </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="32"/>
-      <c r="B22" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="35"/>
-    </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="32"/>
-      <c r="B23" s="24" t="s">
-        <v>48</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="32"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="42"/>
+      <c r="B26" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="42"/>
+      <c r="B27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C27" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="42"/>
+      <c r="B28" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C28" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="38"/>
-      <c r="B26" s="20" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="36"/>
+      <c r="B30" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="38"/>
-      <c r="B27" s="6" t="s">
+      <c r="C30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="38"/>
+    </row>
+    <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="36"/>
+      <c r="B31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="38"/>
+    </row>
+    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="36"/>
+      <c r="B32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="38"/>
+    </row>
+    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="36"/>
+      <c r="B33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="38"/>
-      <c r="B28" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="32"/>
-      <c r="B30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="34"/>
-    </row>
-    <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="32"/>
-      <c r="B31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="34"/>
-    </row>
-    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="32"/>
-      <c r="B32" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="34"/>
-    </row>
-    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="32"/>
-      <c r="B33" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="35"/>
+        <v>69</v>
+      </c>
+      <c r="E33" s="39"/>
     </row>
     <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2264,7 +2271,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2273,40 +2280,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="39"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="39"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="39"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="39"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
